--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t xml:space="preserve">IPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC_binned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC_binned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
 </sst>
 </file>
@@ -470,43 +482,43 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.449492931286265</v>
+        <v>-0.258779561459957</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0628865403492354</v>
+        <v>0.0687947093965974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.637951554895369</v>
+        <v>0.771993181338109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.563972069783506</v>
+        <v>0.674612253867679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.721635357846087</v>
+        <v>0.883431139318485</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.14768102665597</v>
+        <v>-3.76162009738435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000000000000882560931335796</v>
+        <v>0.000168816328108821</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0381930976798974</v>
+        <v>0.0988030110977884</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0515519567849382</v>
+        <v>0.12796183177104</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0687471092216754</v>
+        <v>0.170643400008918</v>
       </c>
       <c r="N2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O2" t="n">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="P2" t="n">
-        <v>51.3424204874019</v>
+        <v>51.3000412711515</v>
       </c>
     </row>
     <row r="3">
@@ -520,43 +532,43 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.23169684826203</v>
+        <v>-0.145558409378665</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0723374688938538</v>
+        <v>0.0821133031658105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793186542742024</v>
+        <v>0.864539391390487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.688335931769816</v>
+        <v>0.736018162252922</v>
       </c>
       <c r="H3" t="n">
-        <v>0.914008498683801</v>
+        <v>1.01550260251457</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.20299910689461</v>
+        <v>-1.77265319706772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00136004402825997</v>
+        <v>0.0762861909651217</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00872552269948124</v>
+        <v>0.0500312084803567</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00895630870905462</v>
+        <v>0.0502330774389944</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0139207963456736</v>
+        <v>0.0781181719021806</v>
       </c>
       <c r="N3" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O3" t="n">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="P3" t="n">
-        <v>51.3011152416357</v>
+        <v>51.2587701196863</v>
       </c>
     </row>
     <row r="4">
@@ -570,43 +582,43 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.155685387333978</v>
+        <v>0.463400063669868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0668070831919914</v>
+        <v>0.0820632071478834</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1684585334018</v>
+        <v>1.58946910407795</v>
       </c>
       <c r="G4" t="n">
-        <v>1.02505216530686</v>
+        <v>1.35331370028268</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3319276720622</v>
+        <v>1.86683400329919</v>
       </c>
       <c r="I4" t="n">
-        <v>2.33037246793976</v>
+        <v>5.64686757653512</v>
       </c>
       <c r="J4" t="n">
-        <v>0.019786473621363</v>
+        <v>0.000000016339759101596</v>
       </c>
       <c r="K4" t="n">
-        <v>0.034376341255084</v>
+        <v>0.106919821991446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.039619247224629</v>
+        <v>0.118065543600911</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0572963340596356</v>
+        <v>0.170812292795975</v>
       </c>
       <c r="N4" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O4" t="n">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="P4" t="n">
-        <v>51.3011152416357</v>
+        <v>51.2587701196863</v>
       </c>
     </row>
     <row r="5">
@@ -620,43 +632,743 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.128693438848067</v>
+        <v>0.0522192829967376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.060765125620784</v>
+        <v>0.0702351698947427</v>
       </c>
       <c r="F5" t="n">
-        <v>0.879243466124073</v>
+        <v>1.05360675523053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.780521428111363</v>
+        <v>0.918106713020737</v>
       </c>
       <c r="H5" t="n">
-        <v>0.99045208097935</v>
+        <v>1.20910475756681</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.11788320246719</v>
+        <v>0.743491943922048</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0341849605348891</v>
+        <v>0.457183897117816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0169984658498488</v>
+        <v>0.0678463362515088</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0224707710364656</v>
+        <v>0.0867759518866987</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0304742249165392</v>
+        <v>0.117644245893736</v>
       </c>
       <c r="N5" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O5" t="n">
+        <v>1178</v>
+      </c>
+      <c r="P5" t="n">
+        <v>51.3825835740817</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.275365392337117</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.069668773829752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.31701181298453</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.14891106712394</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.50970790096297</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.95249373858683</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0000773409535153061</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0874778914058287</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.11413656672476</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.152227138275818</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1175</v>
+      </c>
+      <c r="P6" t="n">
+        <v>51.5063970284771</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.154070770645589</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0717273977706355</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.857211353463851</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.744787400133747</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.98660544522554</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.14800446460172</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0317134007913597</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0414965481267418</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0505265450935171</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0708312903997911</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O7" t="n">
         <v>1176</v>
       </c>
-      <c r="P5" t="n">
-        <v>51.4250309789343</v>
+      <c r="P7" t="n">
+        <v>51.465125877012</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.312155030716315</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0736302596371464</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.731868057403621</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.633515799443638</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.845489337311158</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-4.2394938202667</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0000224024360425955</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.101674621158246</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.131421930288121</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.175259785382336</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1181</v>
+      </c>
+      <c r="P8" t="n">
+        <v>51.2587701196863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.273695650028319</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0870818049394586</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.760563517524392</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.64122428304818</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.902113159906037</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-3.1429717174397</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00167241998467286</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0556261427181172</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0556665818511978</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0865905396497734</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1182</v>
+      </c>
+      <c r="P9" t="n">
+        <v>51.2174989682212</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.546701578103386</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0847670748810224</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.72754543634151</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.46310093482552</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.03978629470309</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.44945668905913</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00000000011225183278976</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.114879728853828</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.126395843929547</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.182766916443249</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1182</v>
+      </c>
+      <c r="P10" t="n">
+        <v>51.2174989682212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.255429634022396</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0741880357627704</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.29101616620705</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.11630160623274</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.49307564559793</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.44300305832572</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000575292808014033</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0751927950532959</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0957393682725242</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.129774970005552</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1179</v>
+      </c>
+      <c r="P11" t="n">
+        <v>51.3413124226166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.359130313684676</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0736014215927267</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.43208340947846</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.23970261887022</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.65431843128031</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.87939371160414</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00000106412451488137</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0932163795004234</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.121155596946958</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.161585843078277</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1176</v>
+      </c>
+      <c r="P12" t="n">
+        <v>51.465125877012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.298966418709643</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.076712415691972</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.74158431237499</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.638060129338693</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.86190512002477</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3.89723639925642</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0000972966339521599</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0481425736715023</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0583594378897373</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0818255353573436</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1177</v>
+      </c>
+      <c r="P13" t="n">
+        <v>51.4238547255468</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.0947744076815275</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.091109773721392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.90957810515847</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.760826783351673</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.08741220404863</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.04022218265344</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.29823668785816</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0155227097900623</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0207121139935401</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0279770752589802</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O14" t="n">
+        <v>556</v>
+      </c>
+      <c r="P14" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.514891087276643</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.122801727514094</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.597565673579104</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.469736925857692</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.760180251080001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.19286517950287</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0000275453162299745</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.104354580014875</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0963715488031196</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.15510588843119</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O15" t="n">
+        <v>554</v>
+      </c>
+      <c r="P15" t="n">
+        <v>77.1357820883203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.701196755035793</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.12458732921404</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.01616411881051</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.57933771236924</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.57381161872022</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.62815464027761</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0000000182147758501423</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0825750800190544</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0769052913554933</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.12392579886775</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O16" t="n">
+        <v>556</v>
+      </c>
+      <c r="P16" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0614103117269939</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.104724511884437</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.06333512356109</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.866017873431313</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.30560998760766</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.586398643660042</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.557607655565632</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0303827192625116</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0328784363935992</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0492753204696197</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O17" t="n">
+        <v>556</v>
+      </c>
+      <c r="P17" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.380917182476163</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0958648760530169</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.46362638647712</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.21290950805686</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.76616819718397</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.97348015414428</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0000708300622948678</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0561806703822183</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0734115927325211</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0988564920013831</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O18" t="n">
+        <v>552</v>
+      </c>
+      <c r="P18" t="n">
+        <v>77.2183243912505</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.442231026406693</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.105738194526838</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.64260116046833</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.522318414460592</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.790583368311247</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-4.18232057380597</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000028854871909762</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0679416139820209</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0786916458889388</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.112302974264172</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O19" t="n">
+        <v>553</v>
+      </c>
+      <c r="P19" t="n">
+        <v>77.1770532397854</v>
       </c>
     </row>
   </sheetData>
